--- a/ship_info.xlsx
+++ b/ship_info.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.ussouthcom.mil\dfs\homedrives\christopher.marks\Desktop\Rscripts\migration\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1470" windowWidth="27870" windowHeight="14610" activeTab="3"/>
+    <workbookView xWindow="760" yWindow="640" windowWidth="22160" windowHeight="12880" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="number.ship.per.patrol.area" sheetId="1" r:id="rId1"/>
-    <sheet name="ship.demographics" sheetId="2" r:id="rId2"/>
-    <sheet name="prob.interdiction.locations" sheetId="3" r:id="rId3"/>
-    <sheet name="patrol.areas" sheetId="6" r:id="rId4"/>
+    <sheet name="ship.allocation" sheetId="1" r:id="rId1"/>
+    <sheet name="ship.properties" sheetId="2" r:id="rId2"/>
+    <sheet name="pickup.areas" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>CTU Coastal Miami</t>
   </si>
@@ -208,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,7 +240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,16 +431,16 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -466,7 +463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -477,7 +474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -488,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -505,7 +502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -519,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -538,6 +535,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -549,19 +551,19 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -587,7 +589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -613,7 +615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -639,7 +641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -665,7 +667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -691,7 +693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -717,7 +719,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -745,110 +747,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.05</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.65</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -868,7 +791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -888,7 +811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -908,7 +831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -928,7 +851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -948,7 +871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -970,6 +893,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -983,6 +911,71 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Activity xmlns="348ca378-c0f9-4e60-b27f-41b2041b1dd9">
+      <Value>6</Value>
+    </Activity>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Display_on_page xmlns="348ca378-c0f9-4e60-b27f-41b2041b1dd9">true</Display_on_page>
+    <_dlc_DocId xmlns="84693147-52c4-4662-b1a7-18c41614cff0">Q5AUM46MDZEJ-1131762182-71</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="84693147-52c4-4662-b1a7-18c41614cff0">
+      <Url>https://intranet.ent.southcom.mil/sites/j8/j86/plans_exercises/_layouts/15/DocIdRedir.aspx?ID=Q5AUM46MDZEJ-1131762182-71</Url>
+      <Description>Q5AUM46MDZEJ-1131762182-71</Description>
+    </_dlc_DocIdUrl>
+    <Notes0 xmlns="348ca378-c0f9-4e60-b27f-41b2041b1dd9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E98F0229F486E04DA2FE76E912587A6D" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dc21fe023fd19c8612636d1504badd8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="84693147-52c4-4662-b1a7-18c41614cff0" xmlns:ns3="348ca378-c0f9-4e60-b27f-41b2041b1dd9" xmlns:ns4="b27669ef-06da-4186-b2b5-202b89e8933f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="522d6d291a4b2d293ce05e502dc0f1e3" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1200,83 +1193,51 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Activity xmlns="348ca378-c0f9-4e60-b27f-41b2041b1dd9">
-      <Value>6</Value>
-    </Activity>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Display_on_page xmlns="348ca378-c0f9-4e60-b27f-41b2041b1dd9">true</Display_on_page>
-    <_dlc_DocId xmlns="84693147-52c4-4662-b1a7-18c41614cff0">Q5AUM46MDZEJ-1131762182-71</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="84693147-52c4-4662-b1a7-18c41614cff0">
-      <Url>https://intranet.ent.southcom.mil/sites/j8/j86/plans_exercises/_layouts/15/DocIdRedir.aspx?ID=Q5AUM46MDZEJ-1131762182-71</Url>
-      <Description>Q5AUM46MDZEJ-1131762182-71</Description>
-    </_dlc_DocIdUrl>
-    <Notes0 xmlns="348ca378-c0f9-4e60-b27f-41b2041b1dd9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3987E214-61B4-419B-A4CB-2A75AD93B079}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3987E214-61B4-419B-A4CB-2A75AD93B079}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A37F06D-B174-4060-9C7A-5CA9AA155874}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3ECC24-28D1-4E32-8C7D-916B09E433ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="348ca378-c0f9-4e60-b27f-41b2041b1dd9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="84693147-52c4-4662-b1a7-18c41614cff0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCC38F6-6EAD-4ED5-9126-E23B99D20BE1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCC38F6-6EAD-4ED5-9126-E23B99D20BE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3ECC24-28D1-4E32-8C7D-916B09E433ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A37F06D-B174-4060-9C7A-5CA9AA155874}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="84693147-52c4-4662-b1a7-18c41614cff0"/>
+    <ds:schemaRef ds:uri="348ca378-c0f9-4e60-b27f-41b2041b1dd9"/>
+    <ds:schemaRef ds:uri="b27669ef-06da-4186-b2b5-202b89e8933f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ship_info.xlsx
+++ b/ship_info.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.ussouthcom.mil\dfs\homedrives\christopher.marks\Desktop\Rscripts\migration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="640" windowWidth="22160" windowHeight="12880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1680" windowWidth="27870" windowHeight="14610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ship.allocation" sheetId="1" r:id="rId1"/>
-    <sheet name="ship.properties" sheetId="2" r:id="rId2"/>
+    <sheet name="ship.attributes" sheetId="2" r:id="rId2"/>
     <sheet name="pickup.areas" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>CTU Coastal Miami</t>
   </si>
@@ -68,30 +70,6 @@
     <t>ship.1200</t>
   </si>
   <si>
-    <t>ship.group</t>
-  </si>
-  <si>
-    <t>saturation.pax.limit</t>
-  </si>
-  <si>
-    <t>super.saturation.pax.limit</t>
-  </si>
-  <si>
-    <t>saturation.time.hours</t>
-  </si>
-  <si>
-    <t>super.saturation.time.hours</t>
-  </si>
-  <si>
-    <t>ship.offload.times</t>
-  </si>
-  <si>
-    <t>ship.berth.occupation</t>
-  </si>
-  <si>
-    <t>ship.recovery.time</t>
-  </si>
-  <si>
     <t>migrant.timeout</t>
   </si>
   <si>
@@ -102,6 +80,39 @@
   </si>
   <si>
     <t>timeout.action</t>
+  </si>
+  <si>
+    <t>ship.type</t>
+  </si>
+  <si>
+    <t>sat.capacity</t>
+  </si>
+  <si>
+    <t>supersat.capacity</t>
+  </si>
+  <si>
+    <t>sat.time</t>
+  </si>
+  <si>
+    <t>supersat.time</t>
+  </si>
+  <si>
+    <t>offload.time</t>
+  </si>
+  <si>
+    <t>berth.occupation</t>
+  </si>
+  <si>
+    <t>recovery.time</t>
+  </si>
+  <si>
+    <t>pickup.area</t>
+  </si>
+  <si>
+    <t>occupied.time</t>
+  </si>
+  <si>
+    <t>Inf</t>
   </si>
 </sst>
 </file>
@@ -205,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,7 +251,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,19 +439,19 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -463,7 +474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -474,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -485,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -502,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -516,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -535,61 +546,59 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -599,23 +608,26 @@
       <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
         <v>96</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>24</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -625,23 +637,26 @@
       <c r="C3">
         <v>150</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
         <v>96</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>24</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.5</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -651,23 +666,26 @@
       <c r="C4">
         <v>350</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
         <v>96</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>48</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -677,23 +695,26 @@
       <c r="C5">
         <v>450</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
         <v>96</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>48</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -703,23 +724,26 @@
       <c r="C6">
         <v>650</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
         <v>96</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>48</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -729,29 +753,27 @@
       <c r="C7">
         <v>1200</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
         <v>120</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>72</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -759,21 +781,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -782,16 +804,16 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -805,13 +827,13 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -825,13 +847,13 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -851,7 +873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -871,7 +893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -893,24 +915,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Activity xmlns="348ca378-c0f9-4e60-b27f-41b2041b1dd9">
@@ -929,7 +937,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -975,7 +983,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E98F0229F486E04DA2FE76E912587A6D" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dc21fe023fd19c8612636d1504badd8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="84693147-52c4-4662-b1a7-18c41614cff0" xmlns:ns3="348ca378-c0f9-4e60-b27f-41b2041b1dd9" xmlns:ns4="b27669ef-06da-4186-b2b5-202b89e8933f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="522d6d291a4b2d293ce05e502dc0f1e3" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1193,15 +1201,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3987E214-61B4-419B-A4CB-2A75AD93B079}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3ECC24-28D1-4E32-8C7D-916B09E433ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1213,7 +1222,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCC38F6-6EAD-4ED5-9126-E23B99D20BE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -1221,7 +1230,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A37F06D-B174-4060-9C7A-5CA9AA155874}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1240,4 +1249,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3987E214-61B4-419B-A4CB-2A75AD93B079}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>